--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -14,30 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
-    <t>Snakes &amp;  Ladders #</t>
+    <t>Player # : 10</t>
   </si>
   <si>
-    <t>Save</t>
+    <t>Snakes &amp; Ladders #</t>
   </si>
   <si>
-    <t>Reload</t>
+    <t>Save/ns</t>
   </si>
   <si>
-    <t>20k</t>
+    <t>Reload/ns</t>
   </si>
   <si>
-    <t>player #</t>
+    <t>Snakes &amp; Ladders # : 10</t>
   </si>
   <si>
-    <t>50k</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>200k</t>
+    <t>Players #</t>
   </si>
 </sst>
 </file>
@@ -50,8 +44,18 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -397,12 +401,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,157 +527,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -979,13 +1007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="28.1484375" customWidth="1"/>
     <col min="2" max="7" width="12.6875"/>
@@ -995,197 +1023,183 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>425</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>1378</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1730</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8562</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10712</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>34174</v>
-      </c>
-      <c r="C5" s="1">
-        <v>42608</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>136603</v>
-      </c>
-      <c r="C6" s="1">
-        <v>172081</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="3">
+        <v>100</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -38,11 +38,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -63,15 +64,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,13 +98,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,8 +111,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,98 +207,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -216,6 +217,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -228,49 +253,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,121 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,15 +443,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -463,8 +455,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,17 +485,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,11 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,152 +528,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +684,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1010,7 +1014,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1038,43 +1042,63 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="4">
+        <v>423</v>
+      </c>
+      <c r="C3" s="3">
+        <v>499</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>100</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="4">
+        <v>711</v>
+      </c>
+      <c r="C4" s="3">
+        <v>997</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>1000</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="4">
+        <v>1897</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3864</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>10000</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="4">
+        <v>7081</v>
+      </c>
+      <c r="C6" s="3">
+        <v>21110</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>100000</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="4">
+        <v>52219</v>
+      </c>
+      <c r="C7" s="3">
+        <v>183815</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="4:4">
@@ -1084,7 +1108,7 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
@@ -1105,40 +1129,60 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3">
+        <v>592</v>
+      </c>
+      <c r="C12" s="3">
+        <v>240</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>100</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3">
+        <v>656</v>
+      </c>
+      <c r="C13" s="3">
+        <v>527</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>1000</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3">
+        <v>1512</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4245</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>10000</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3">
+        <v>6287</v>
+      </c>
+      <c r="C15" s="3">
+        <v>27206</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>100000</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="3">
+        <v>39032</v>
+      </c>
+      <c r="C16" s="3">
+        <v>201862</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
